--- a/Data/ROY Data/rookies_91_92.xlsx
+++ b/Data/ROY Data/rookies_91_92.xlsx
@@ -271,7 +271,7 @@
     <t>John Turner</t>
   </si>
   <si>
-    <t>Jo�o Vianna</t>
+    <t>João Vianna</t>
   </si>
   <si>
     <t>Nov 1, '91, GSW @ DEN</t>
@@ -894,76 +894,76 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>5755</v>
+        <v>1350</v>
       </c>
       <c r="I2">
-        <v>1101</v>
+        <v>243</v>
       </c>
       <c r="J2">
-        <v>2126</v>
+        <v>459</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>322</v>
+        <v>103</v>
       </c>
       <c r="N2">
-        <v>508</v>
+        <v>149</v>
       </c>
       <c r="O2">
-        <v>446</v>
+        <v>106</v>
       </c>
       <c r="P2">
-        <v>1384</v>
+        <v>336</v>
       </c>
       <c r="Q2">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="R2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="S2">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="T2">
-        <v>378</v>
+        <v>91</v>
       </c>
       <c r="U2">
-        <v>713</v>
+        <v>176</v>
       </c>
       <c r="V2">
-        <v>2542</v>
+        <v>589</v>
       </c>
       <c r="W2">
-        <v>0.518</v>
+        <v>0.529</v>
       </c>
       <c r="X2">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.634</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="Z2">
-        <v>20.1</v>
+        <v>16.9</v>
       </c>
       <c r="AA2">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="AB2">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AC2">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="s">
         <v>136</v>
@@ -986,76 +986,76 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>858</v>
+        <v>64</v>
       </c>
       <c r="H3">
-        <v>25868</v>
+        <v>1086</v>
       </c>
       <c r="I3">
-        <v>4002</v>
+        <v>187</v>
       </c>
       <c r="J3">
-        <v>9512</v>
+        <v>480</v>
       </c>
       <c r="K3">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>1580</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>2238</v>
+        <v>73</v>
       </c>
       <c r="N3">
-        <v>2833</v>
+        <v>98</v>
       </c>
       <c r="O3">
-        <v>670</v>
+        <v>38</v>
       </c>
       <c r="P3">
-        <v>2641</v>
+        <v>127</v>
       </c>
       <c r="Q3">
-        <v>5196</v>
+        <v>203</v>
       </c>
       <c r="R3">
-        <v>1258</v>
+        <v>67</v>
       </c>
       <c r="S3">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="T3">
-        <v>1769</v>
+        <v>97</v>
       </c>
       <c r="U3">
-        <v>1974</v>
+        <v>68</v>
       </c>
       <c r="V3">
-        <v>10789</v>
+        <v>450</v>
       </c>
       <c r="W3">
-        <v>0.421</v>
+        <v>0.39</v>
       </c>
       <c r="X3">
-        <v>0.346</v>
+        <v>0.231</v>
       </c>
       <c r="Y3">
-        <v>0.79</v>
+        <v>0.745</v>
       </c>
       <c r="Z3">
-        <v>30.1</v>
+        <v>17</v>
       </c>
       <c r="AA3">
-        <v>12.6</v>
+        <v>7</v>
       </c>
       <c r="AB3">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD3" t="s">
         <v>136</v>
@@ -1078,76 +1078,76 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>757</v>
+        <v>82</v>
       </c>
       <c r="H4">
-        <v>15850</v>
+        <v>1510</v>
       </c>
       <c r="I4">
-        <v>1914</v>
+        <v>161</v>
       </c>
       <c r="J4">
-        <v>4750</v>
+        <v>435</v>
       </c>
       <c r="K4">
-        <v>610</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>1748</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>1059</v>
+        <v>117</v>
       </c>
       <c r="N4">
-        <v>1445</v>
+        <v>158</v>
       </c>
       <c r="O4">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="P4">
-        <v>1417</v>
+        <v>136</v>
       </c>
       <c r="Q4">
-        <v>2997</v>
+        <v>314</v>
       </c>
       <c r="R4">
-        <v>887</v>
+        <v>59</v>
       </c>
       <c r="S4">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="T4">
-        <v>1043</v>
+        <v>98</v>
       </c>
       <c r="U4">
-        <v>1324</v>
+        <v>170</v>
       </c>
       <c r="V4">
-        <v>5497</v>
+        <v>447</v>
       </c>
       <c r="W4">
-        <v>0.403</v>
+        <v>0.37</v>
       </c>
       <c r="X4">
-        <v>0.349</v>
+        <v>0.145</v>
       </c>
       <c r="Y4">
-        <v>0.733</v>
+        <v>0.741</v>
       </c>
       <c r="Z4">
-        <v>20.9</v>
+        <v>18.4</v>
       </c>
       <c r="AA4">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AB4">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AC4">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD4" t="s">
         <v>136</v>
@@ -1170,76 +1170,76 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1001</v>
+        <v>82</v>
       </c>
       <c r="H5">
-        <v>21658</v>
+        <v>2505</v>
       </c>
       <c r="I5">
-        <v>3037</v>
+        <v>440</v>
       </c>
       <c r="J5">
-        <v>6480</v>
+        <v>899</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>1904</v>
+        <v>213</v>
       </c>
       <c r="N5">
-        <v>2616</v>
+        <v>320</v>
       </c>
       <c r="O5">
-        <v>1304</v>
+        <v>191</v>
       </c>
       <c r="P5">
-        <v>3216</v>
+        <v>420</v>
       </c>
       <c r="Q5">
-        <v>1561</v>
+        <v>201</v>
       </c>
       <c r="R5">
-        <v>974</v>
+        <v>124</v>
       </c>
       <c r="S5">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="T5">
-        <v>1248</v>
+        <v>181</v>
       </c>
       <c r="U5">
-        <v>1750</v>
+        <v>161</v>
       </c>
       <c r="V5">
-        <v>7990</v>
+        <v>1094</v>
       </c>
       <c r="W5">
-        <v>0.469</v>
+        <v>0.489</v>
       </c>
       <c r="X5">
-        <v>0.152</v>
+        <v>0.167</v>
       </c>
       <c r="Y5">
-        <v>0.728</v>
+        <v>0.666</v>
       </c>
       <c r="Z5">
-        <v>21.6</v>
+        <v>30.5</v>
       </c>
       <c r="AA5">
-        <v>8</v>
+        <v>13.3</v>
       </c>
       <c r="AB5">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="AC5">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD5" t="s">
         <v>136</v>
@@ -1262,76 +1262,73 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>432</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>8350</v>
+        <v>112</v>
       </c>
       <c r="I6">
-        <v>1295</v>
+        <v>21</v>
       </c>
       <c r="J6">
-        <v>2901</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>686</v>
+        <v>19</v>
       </c>
       <c r="N6">
-        <v>1024</v>
+        <v>30</v>
       </c>
       <c r="O6">
-        <v>617</v>
+        <v>11</v>
       </c>
       <c r="P6">
-        <v>2030</v>
+        <v>35</v>
       </c>
       <c r="Q6">
-        <v>538</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>214</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>701</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>967</v>
+        <v>20</v>
       </c>
       <c r="V6">
-        <v>3285</v>
+        <v>61</v>
       </c>
       <c r="W6">
-        <v>0.446</v>
-      </c>
-      <c r="X6">
-        <v>0.176</v>
+        <v>0.457</v>
       </c>
       <c r="Y6">
-        <v>0.67</v>
+        <v>0.633</v>
       </c>
       <c r="Z6">
-        <v>19.3</v>
+        <v>3.6</v>
       </c>
       <c r="AA6">
-        <v>7.6</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="AC6">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="s">
         <v>136</v>
@@ -1354,76 +1351,67 @@
         <v>23</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>73</v>
-      </c>
-      <c r="W7">
-        <v>0.329</v>
-      </c>
-      <c r="X7">
-        <v>0.1</v>
-      </c>
-      <c r="Y7">
-        <v>0.696</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="s">
         <v>136</v>
@@ -1446,76 +1434,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="H8">
-        <v>9314</v>
+        <v>1161</v>
       </c>
       <c r="I8">
-        <v>1335</v>
+        <v>175</v>
       </c>
       <c r="J8">
-        <v>3051</v>
+        <v>375</v>
       </c>
       <c r="K8">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>661</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>574</v>
+        <v>81</v>
       </c>
       <c r="N8">
-        <v>722</v>
+        <v>100</v>
       </c>
       <c r="O8">
-        <v>576</v>
+        <v>105</v>
       </c>
       <c r="P8">
-        <v>1983</v>
+        <v>296</v>
       </c>
       <c r="Q8">
-        <v>287</v>
+        <v>34</v>
       </c>
       <c r="R8">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="S8">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="T8">
-        <v>424</v>
+        <v>71</v>
       </c>
       <c r="U8">
-        <v>1021</v>
+        <v>124</v>
       </c>
       <c r="V8">
-        <v>3455</v>
+        <v>434</v>
       </c>
       <c r="W8">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="X8">
-        <v>0.319</v>
+        <v>0.214</v>
       </c>
       <c r="Y8">
-        <v>0.795</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z8">
-        <v>18.9</v>
+        <v>15.1</v>
       </c>
       <c r="AA8">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AC8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD8" t="s">
         <v>136</v>
@@ -1538,76 +1526,76 @@
         <v>21</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>724</v>
+        <v>82</v>
       </c>
       <c r="H9">
-        <v>21545</v>
+        <v>1605</v>
       </c>
       <c r="I9">
-        <v>3908</v>
+        <v>252</v>
       </c>
       <c r="J9">
-        <v>8720</v>
+        <v>601</v>
       </c>
       <c r="K9">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1110</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>1784</v>
+        <v>100</v>
       </c>
       <c r="N9">
-        <v>2043</v>
+        <v>124</v>
       </c>
       <c r="O9">
-        <v>425</v>
+        <v>49</v>
       </c>
       <c r="P9">
-        <v>2174</v>
+        <v>162</v>
       </c>
       <c r="Q9">
-        <v>4407</v>
+        <v>316</v>
       </c>
       <c r="R9">
-        <v>1142</v>
+        <v>81</v>
       </c>
       <c r="S9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="T9">
-        <v>1419</v>
+        <v>136</v>
       </c>
       <c r="U9">
-        <v>1325</v>
+        <v>107</v>
       </c>
       <c r="V9">
-        <v>9994</v>
+        <v>605</v>
       </c>
       <c r="W9">
-        <v>0.448</v>
+        <v>0.419</v>
       </c>
       <c r="X9">
-        <v>0.355</v>
+        <v>0.043</v>
       </c>
       <c r="Y9">
-        <v>0.873</v>
+        <v>0.806</v>
       </c>
       <c r="Z9">
-        <v>29.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA9">
-        <v>13.8</v>
+        <v>7.4</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC9">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD9" t="s">
         <v>136</v>
@@ -1630,76 +1618,76 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>1031</v>
+        <v>270</v>
       </c>
       <c r="I10">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="J10">
-        <v>429</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="N10">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="O10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="P10">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
         <v>18</v>
       </c>
-      <c r="S10">
-        <v>6</v>
-      </c>
-      <c r="T10">
-        <v>69</v>
-      </c>
       <c r="U10">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="V10">
-        <v>417</v>
+        <v>105</v>
       </c>
       <c r="W10">
-        <v>0.401</v>
+        <v>0.443</v>
       </c>
       <c r="X10">
-        <v>0.2</v>
+        <v>0.182</v>
       </c>
       <c r="Y10">
-        <v>0.859</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z10">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="AA10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AB10">
         <v>1.1</v>
       </c>
       <c r="AC10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD10" t="s">
         <v>136</v>
@@ -1811,76 +1799,76 @@
         <v>23</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>535</v>
+      </c>
+      <c r="I12">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>169</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>38</v>
+      </c>
+      <c r="N12">
+        <v>58</v>
+      </c>
+      <c r="O12">
+        <v>26</v>
+      </c>
+      <c r="P12">
+        <v>69</v>
+      </c>
+      <c r="Q12">
+        <v>59</v>
+      </c>
+      <c r="R12">
+        <v>35</v>
+      </c>
+      <c r="S12">
         <v>12</v>
       </c>
-      <c r="G12">
-        <v>655</v>
-      </c>
-      <c r="H12">
-        <v>11533</v>
-      </c>
-      <c r="I12">
-        <v>1275</v>
-      </c>
-      <c r="J12">
-        <v>3055</v>
-      </c>
-      <c r="K12">
-        <v>24</v>
-      </c>
-      <c r="L12">
-        <v>120</v>
-      </c>
-      <c r="M12">
-        <v>574</v>
-      </c>
-      <c r="N12">
-        <v>831</v>
-      </c>
-      <c r="O12">
-        <v>326</v>
-      </c>
-      <c r="P12">
-        <v>1173</v>
-      </c>
-      <c r="Q12">
-        <v>1420</v>
-      </c>
-      <c r="R12">
-        <v>722</v>
-      </c>
-      <c r="S12">
-        <v>156</v>
-      </c>
       <c r="T12">
-        <v>725</v>
+        <v>42</v>
       </c>
       <c r="U12">
-        <v>1263</v>
+        <v>68</v>
       </c>
       <c r="V12">
-        <v>3148</v>
+        <v>192</v>
       </c>
       <c r="W12">
-        <v>0.417</v>
+        <v>0.456</v>
       </c>
       <c r="X12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.6909999999999999</v>
+        <v>0.655</v>
       </c>
       <c r="Z12">
-        <v>17.6</v>
+        <v>9.6</v>
       </c>
       <c r="AA12">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="AB12">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AC12">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD12" t="s">
         <v>136</v>
@@ -1995,76 +1983,76 @@
         <v>23</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>584</v>
+        <v>69</v>
       </c>
       <c r="H14">
-        <v>8394</v>
+        <v>817</v>
       </c>
       <c r="I14">
-        <v>1044</v>
+        <v>113</v>
       </c>
       <c r="J14">
-        <v>2368</v>
+        <v>250</v>
       </c>
       <c r="K14">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="N14">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="O14">
-        <v>663</v>
+        <v>78</v>
       </c>
       <c r="P14">
-        <v>1935</v>
+        <v>187</v>
       </c>
       <c r="Q14">
-        <v>488</v>
+        <v>38</v>
       </c>
       <c r="R14">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="S14">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="T14">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="U14">
-        <v>853</v>
+        <v>70</v>
       </c>
       <c r="V14">
-        <v>2494</v>
+        <v>251</v>
       </c>
       <c r="W14">
-        <v>0.441</v>
+        <v>0.452</v>
       </c>
       <c r="X14">
-        <v>0.381</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.696</v>
+        <v>0.821</v>
       </c>
       <c r="Z14">
-        <v>14.4</v>
+        <v>11.8</v>
       </c>
       <c r="AA14">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB14">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AC14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD14" t="s">
         <v>136</v>
@@ -2087,76 +2075,73 @@
         <v>24</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>381</v>
+      </c>
+      <c r="I15">
+        <v>48</v>
+      </c>
+      <c r="J15">
+        <v>101</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>32</v>
+      </c>
+      <c r="O15">
+        <v>33</v>
+      </c>
+      <c r="P15">
+        <v>69</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+      <c r="R15">
         <v>9</v>
       </c>
-      <c r="G15">
-        <v>379</v>
-      </c>
-      <c r="H15">
-        <v>6316</v>
-      </c>
-      <c r="I15">
-        <v>967</v>
-      </c>
-      <c r="J15">
-        <v>1942</v>
-      </c>
-      <c r="K15">
-        <v>15</v>
-      </c>
-      <c r="L15">
-        <v>75</v>
-      </c>
-      <c r="M15">
-        <v>505</v>
-      </c>
-      <c r="N15">
-        <v>687</v>
-      </c>
-      <c r="O15">
-        <v>498</v>
-      </c>
-      <c r="P15">
-        <v>1310</v>
-      </c>
-      <c r="Q15">
-        <v>378</v>
-      </c>
-      <c r="R15">
-        <v>148</v>
-      </c>
       <c r="S15">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="T15">
-        <v>413</v>
+        <v>27</v>
       </c>
       <c r="U15">
-        <v>684</v>
+        <v>40</v>
       </c>
       <c r="V15">
-        <v>2454</v>
+        <v>120</v>
       </c>
       <c r="W15">
-        <v>0.498</v>
-      </c>
-      <c r="X15">
-        <v>0.2</v>
+        <v>0.475</v>
       </c>
       <c r="Y15">
-        <v>0.735</v>
+        <v>0.75</v>
       </c>
       <c r="Z15">
-        <v>16.7</v>
+        <v>8.5</v>
       </c>
       <c r="AA15">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="AB15">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD15" t="s">
         <v>136</v>
@@ -2268,76 +2253,76 @@
         <v>23</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="H17">
-        <v>1313</v>
+        <v>741</v>
       </c>
       <c r="I17">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="J17">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="K17">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L17">
+        <v>37</v>
+      </c>
+      <c r="M17">
+        <v>91</v>
+      </c>
+      <c r="N17">
+        <v>104</v>
+      </c>
+      <c r="O17">
+        <v>18</v>
+      </c>
+      <c r="P17">
         <v>78</v>
       </c>
-      <c r="M17">
-        <v>133</v>
-      </c>
-      <c r="N17">
-        <v>163</v>
-      </c>
-      <c r="O17">
-        <v>27</v>
-      </c>
-      <c r="P17">
-        <v>129</v>
-      </c>
       <c r="Q17">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="R17">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="U17">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="V17">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="W17">
-        <v>0.421</v>
+        <v>0.399</v>
       </c>
       <c r="X17">
-        <v>0.269</v>
+        <v>0.27</v>
       </c>
       <c r="Y17">
-        <v>0.8159999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z17">
-        <v>11.7</v>
+        <v>14.5</v>
       </c>
       <c r="AA17">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AB17">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC17">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AD17" t="s">
         <v>136</v>
@@ -2360,70 +2345,70 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H18">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="I18">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J18">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K18">
         <v>13</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>41</v>
+      </c>
+      <c r="Q18">
         <v>17</v>
       </c>
-      <c r="N18">
-        <v>24</v>
-      </c>
-      <c r="O18">
-        <v>17</v>
-      </c>
-      <c r="P18">
-        <v>44</v>
-      </c>
-      <c r="Q18">
-        <v>18</v>
-      </c>
       <c r="R18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S18">
         <v>2</v>
       </c>
       <c r="T18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V18">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="W18">
-        <v>0.369</v>
+        <v>0.384</v>
       </c>
       <c r="X18">
-        <v>0.382</v>
+        <v>0.433</v>
       </c>
       <c r="Y18">
-        <v>0.708</v>
+        <v>0.833</v>
       </c>
       <c r="Z18">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA18">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB18">
         <v>0.8</v>
@@ -2452,76 +2437,76 @@
         <v>22</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1094</v>
+        <v>64</v>
       </c>
       <c r="H19">
-        <v>29606</v>
+        <v>1301</v>
       </c>
       <c r="I19">
-        <v>3592</v>
+        <v>154</v>
       </c>
       <c r="J19">
-        <v>6779</v>
+        <v>279</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1522</v>
+        <v>87</v>
       </c>
       <c r="N19">
-        <v>2708</v>
+        <v>152</v>
       </c>
       <c r="O19">
-        <v>3303</v>
+        <v>158</v>
       </c>
       <c r="P19">
-        <v>8605</v>
+        <v>410</v>
       </c>
       <c r="Q19">
-        <v>978</v>
+        <v>30</v>
       </c>
       <c r="R19">
-        <v>691</v>
+        <v>27</v>
       </c>
       <c r="S19">
-        <v>1270</v>
+        <v>74</v>
       </c>
       <c r="T19">
-        <v>1090</v>
+        <v>49</v>
       </c>
       <c r="U19">
-        <v>2878</v>
+        <v>191</v>
       </c>
       <c r="V19">
-        <v>8706</v>
+        <v>395</v>
       </c>
       <c r="W19">
-        <v>0.53</v>
+        <v>0.552</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.5620000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="Z19">
-        <v>27.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA19">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="AB19">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="AC19">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD19" t="s">
         <v>136</v>
@@ -2544,76 +2529,73 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>413</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>10004</v>
+        <v>905</v>
       </c>
       <c r="I20">
-        <v>1847</v>
+        <v>171</v>
       </c>
       <c r="J20">
-        <v>3499</v>
+        <v>324</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>840</v>
+        <v>95</v>
       </c>
       <c r="N20">
-        <v>1215</v>
+        <v>142</v>
       </c>
       <c r="O20">
-        <v>853</v>
+        <v>115</v>
       </c>
       <c r="P20">
-        <v>2564</v>
+        <v>272</v>
       </c>
       <c r="Q20">
-        <v>440</v>
+        <v>33</v>
       </c>
       <c r="R20">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="S20">
-        <v>355</v>
+        <v>53</v>
       </c>
       <c r="T20">
-        <v>822</v>
+        <v>86</v>
       </c>
       <c r="U20">
-        <v>1297</v>
+        <v>139</v>
       </c>
       <c r="V20">
-        <v>4536</v>
+        <v>437</v>
       </c>
       <c r="W20">
         <v>0.528</v>
       </c>
-      <c r="X20">
-        <v>0.143</v>
-      </c>
       <c r="Y20">
-        <v>0.6909999999999999</v>
+        <v>0.669</v>
       </c>
       <c r="Z20">
-        <v>24.2</v>
+        <v>18.9</v>
       </c>
       <c r="AA20">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="AB20">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC20">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="s">
         <v>136</v>
@@ -2722,19 +2704,19 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>857</v>
+        <v>103</v>
       </c>
       <c r="I22">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="J22">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2743,52 +2725,52 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O22">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="P22">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="T22">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="U22">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="V22">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c r="W22">
-        <v>0.433</v>
+        <v>0.34</v>
       </c>
       <c r="Y22">
-        <v>0.613</v>
+        <v>0.474</v>
       </c>
       <c r="Z22">
-        <v>9.4</v>
+        <v>3.6</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AB22">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="s">
         <v>136</v>
@@ -2811,76 +2793,76 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>930</v>
+        <v>81</v>
       </c>
       <c r="H23">
-        <v>23723</v>
+        <v>1535</v>
       </c>
       <c r="I23">
-        <v>3382</v>
+        <v>241</v>
       </c>
       <c r="J23">
-        <v>7519</v>
+        <v>525</v>
       </c>
       <c r="K23">
-        <v>771</v>
+        <v>23</v>
       </c>
       <c r="L23">
-        <v>2208</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>1431</v>
+        <v>139</v>
       </c>
       <c r="N23">
-        <v>1858</v>
+        <v>184</v>
       </c>
       <c r="O23">
-        <v>996</v>
+        <v>73</v>
       </c>
       <c r="P23">
-        <v>3517</v>
+        <v>220</v>
       </c>
       <c r="Q23">
-        <v>2649</v>
+        <v>126</v>
       </c>
       <c r="R23">
-        <v>967</v>
+        <v>78</v>
       </c>
       <c r="S23">
-        <v>355</v>
+        <v>30</v>
       </c>
       <c r="T23">
-        <v>1611</v>
+        <v>123</v>
       </c>
       <c r="U23">
-        <v>2739</v>
+        <v>230</v>
       </c>
       <c r="V23">
-        <v>8966</v>
+        <v>644</v>
       </c>
       <c r="W23">
-        <v>0.45</v>
+        <v>0.459</v>
       </c>
       <c r="X23">
-        <v>0.349</v>
+        <v>0.329</v>
       </c>
       <c r="Y23">
-        <v>0.77</v>
+        <v>0.755</v>
       </c>
       <c r="Z23">
-        <v>25.5</v>
+        <v>19</v>
       </c>
       <c r="AA23">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AB23">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="AC23">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="AD23" t="s">
         <v>136</v>
@@ -2903,76 +2885,76 @@
         <v>24</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>700</v>
+        <v>54</v>
       </c>
       <c r="H24">
-        <v>13760</v>
+        <v>612</v>
       </c>
       <c r="I24">
-        <v>2804</v>
+        <v>117</v>
       </c>
       <c r="J24">
-        <v>5469</v>
+        <v>206</v>
       </c>
       <c r="K24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>1574</v>
+        <v>72</v>
       </c>
       <c r="N24">
-        <v>2386</v>
+        <v>109</v>
       </c>
       <c r="O24">
-        <v>1248</v>
+        <v>75</v>
       </c>
       <c r="P24">
-        <v>3741</v>
+        <v>182</v>
       </c>
       <c r="Q24">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="R24">
-        <v>464</v>
+        <v>31</v>
       </c>
       <c r="S24">
-        <v>375</v>
+        <v>36</v>
       </c>
       <c r="T24">
-        <v>1069</v>
+        <v>44</v>
       </c>
       <c r="U24">
-        <v>1870</v>
+        <v>101</v>
       </c>
       <c r="V24">
-        <v>7232</v>
+        <v>306</v>
       </c>
       <c r="W24">
-        <v>0.513</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="X24">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z24">
-        <v>19.7</v>
+        <v>11.3</v>
       </c>
       <c r="AA24">
-        <v>10.3</v>
+        <v>5.7</v>
       </c>
       <c r="AB24">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="AC24">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD24" t="s">
         <v>136</v>
@@ -2995,76 +2977,76 @@
         <v>24</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>78</v>
+      </c>
+      <c r="H25">
+        <v>1718</v>
+      </c>
+      <c r="I25">
+        <v>305</v>
+      </c>
+      <c r="J25">
+        <v>682</v>
+      </c>
+      <c r="K25">
+        <v>55</v>
+      </c>
+      <c r="L25">
+        <v>141</v>
+      </c>
+      <c r="M25">
+        <v>126</v>
+      </c>
+      <c r="N25">
+        <v>170</v>
+      </c>
+      <c r="O25">
+        <v>72</v>
+      </c>
+      <c r="P25">
+        <v>231</v>
+      </c>
+      <c r="Q25">
+        <v>175</v>
+      </c>
+      <c r="R25">
+        <v>96</v>
+      </c>
+      <c r="S25">
+        <v>21</v>
+      </c>
+      <c r="T25">
+        <v>91</v>
+      </c>
+      <c r="U25">
+        <v>193</v>
+      </c>
+      <c r="V25">
+        <v>791</v>
+      </c>
+      <c r="W25">
+        <v>0.447</v>
+      </c>
+      <c r="X25">
+        <v>0.39</v>
+      </c>
+      <c r="Y25">
+        <v>0.741</v>
+      </c>
+      <c r="Z25">
+        <v>22</v>
+      </c>
+      <c r="AA25">
+        <v>10.1</v>
+      </c>
+      <c r="AB25">
         <v>3</v>
       </c>
-      <c r="G25">
-        <v>179</v>
-      </c>
-      <c r="H25">
-        <v>3354</v>
-      </c>
-      <c r="I25">
-        <v>582</v>
-      </c>
-      <c r="J25">
-        <v>1299</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="L25">
-        <v>295</v>
-      </c>
-      <c r="M25">
-        <v>235</v>
-      </c>
-      <c r="N25">
-        <v>318</v>
-      </c>
-      <c r="O25">
-        <v>137</v>
-      </c>
-      <c r="P25">
-        <v>433</v>
-      </c>
-      <c r="Q25">
-        <v>352</v>
-      </c>
-      <c r="R25">
-        <v>186</v>
-      </c>
-      <c r="S25">
-        <v>32</v>
-      </c>
-      <c r="T25">
-        <v>216</v>
-      </c>
-      <c r="U25">
-        <v>389</v>
-      </c>
-      <c r="V25">
-        <v>1499</v>
-      </c>
-      <c r="W25">
-        <v>0.448</v>
-      </c>
-      <c r="X25">
-        <v>0.339</v>
-      </c>
-      <c r="Y25">
-        <v>0.739</v>
-      </c>
-      <c r="Z25">
-        <v>18.7</v>
-      </c>
-      <c r="AA25">
-        <v>8.4</v>
-      </c>
-      <c r="AB25">
-        <v>2.4</v>
-      </c>
       <c r="AC25">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD25" t="s">
         <v>136</v>
@@ -3087,76 +3069,76 @@
         <v>21</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>671</v>
+        <v>256</v>
       </c>
       <c r="I26">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="J26">
-        <v>396</v>
+        <v>158</v>
       </c>
       <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
         <v>15</v>
       </c>
-      <c r="L26">
-        <v>61</v>
-      </c>
-      <c r="M26">
+      <c r="N26">
+        <v>28</v>
+      </c>
+      <c r="O26">
+        <v>22</v>
+      </c>
+      <c r="P26">
+        <v>42</v>
+      </c>
+      <c r="Q26">
+        <v>22</v>
+      </c>
+      <c r="R26">
+        <v>13</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>27</v>
+      </c>
+      <c r="U26">
         <v>31</v>
       </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-      <c r="O26">
-        <v>36</v>
-      </c>
-      <c r="P26">
-        <v>85</v>
-      </c>
-      <c r="Q26">
-        <v>45</v>
-      </c>
-      <c r="R26">
-        <v>33</v>
-      </c>
-      <c r="S26">
-        <v>13</v>
-      </c>
-      <c r="T26">
-        <v>63</v>
-      </c>
-      <c r="U26">
-        <v>63</v>
-      </c>
       <c r="V26">
-        <v>352</v>
+        <v>141</v>
       </c>
       <c r="W26">
-        <v>0.386</v>
+        <v>0.392</v>
       </c>
       <c r="X26">
-        <v>0.246</v>
+        <v>0.2</v>
       </c>
       <c r="Y26">
-        <v>0.62</v>
+        <v>0.536</v>
       </c>
       <c r="Z26">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AA26">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AC26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD26" t="s">
         <v>136</v>
@@ -3179,73 +3161,73 @@
         <v>25</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>465</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>8042</v>
+        <v>566</v>
       </c>
       <c r="I27">
-        <v>1039</v>
+        <v>83</v>
       </c>
       <c r="J27">
-        <v>2183</v>
+        <v>161</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>401</v>
+        <v>25</v>
       </c>
       <c r="N27">
-        <v>624</v>
+        <v>44</v>
       </c>
       <c r="O27">
-        <v>577</v>
+        <v>33</v>
       </c>
       <c r="P27">
-        <v>1690</v>
+        <v>99</v>
       </c>
       <c r="Q27">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="R27">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="S27">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="T27">
-        <v>447</v>
+        <v>37</v>
       </c>
       <c r="U27">
-        <v>935</v>
+        <v>60</v>
       </c>
       <c r="V27">
-        <v>2481</v>
+        <v>191</v>
       </c>
       <c r="W27">
-        <v>0.476</v>
+        <v>0.516</v>
       </c>
       <c r="X27">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.643</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="Z27">
-        <v>17.3</v>
+        <v>13.2</v>
       </c>
       <c r="AA27">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="AB27">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AC27">
         <v>0.6</v>
@@ -3271,73 +3253,70 @@
         <v>22</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="H28">
-        <v>3501</v>
+        <v>1058</v>
       </c>
       <c r="I28">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="J28">
-        <v>1057</v>
+        <v>328</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="N28">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="O28">
-        <v>306</v>
+        <v>118</v>
       </c>
       <c r="P28">
-        <v>809</v>
+        <v>275</v>
       </c>
       <c r="Q28">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="R28">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="S28">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="T28">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="U28">
-        <v>531</v>
+        <v>128</v>
       </c>
       <c r="V28">
-        <v>1182</v>
+        <v>426</v>
       </c>
       <c r="W28">
-        <v>0.437</v>
-      </c>
-      <c r="X28">
-        <v>0.286</v>
+        <v>0.497</v>
       </c>
       <c r="Y28">
-        <v>0.711</v>
+        <v>0.667</v>
       </c>
       <c r="Z28">
-        <v>14.1</v>
+        <v>20.7</v>
       </c>
       <c r="AA28">
-        <v>4.7</v>
+        <v>8.4</v>
       </c>
       <c r="AB28">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="AC28">
         <v>0.8</v>
@@ -3363,76 +3342,76 @@
         <v>24</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>318</v>
+      </c>
+      <c r="I29">
+        <v>54</v>
+      </c>
+      <c r="J29">
+        <v>104</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>95</v>
-      </c>
-      <c r="H29">
-        <v>1613</v>
-      </c>
-      <c r="I29">
-        <v>237</v>
-      </c>
-      <c r="J29">
-        <v>518</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
       <c r="M29">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="N29">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="O29">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="P29">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="Q29">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="R29">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="S29">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="U29">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="V29">
-        <v>570</v>
+        <v>131</v>
       </c>
       <c r="W29">
-        <v>0.458</v>
+        <v>0.519</v>
       </c>
       <c r="X29">
-        <v>0.222</v>
+        <v>0.5</v>
       </c>
       <c r="Y29">
-        <v>0.752</v>
+        <v>0.71</v>
       </c>
       <c r="Z29">
-        <v>17</v>
+        <v>11.8</v>
       </c>
       <c r="AA29">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AB29">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC29">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD29" t="s">
         <v>136</v>
@@ -3538,76 +3517,76 @@
         <v>24</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H31">
-        <v>3049</v>
+        <v>1280</v>
       </c>
       <c r="I31">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="J31">
-        <v>833</v>
+        <v>355</v>
       </c>
       <c r="K31">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="L31">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="M31">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="N31">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="O31">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="P31">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="Q31">
-        <v>522</v>
+        <v>194</v>
       </c>
       <c r="R31">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="S31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="U31">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="V31">
-        <v>1096</v>
+        <v>486</v>
       </c>
       <c r="W31">
-        <v>0.457</v>
+        <v>0.451</v>
       </c>
       <c r="X31">
-        <v>0.404</v>
+        <v>0.434</v>
       </c>
       <c r="Y31">
-        <v>0.798</v>
+        <v>0.836</v>
       </c>
       <c r="Z31">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="AA31">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AC31">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AD31" t="s">
         <v>136</v>
@@ -3630,76 +3609,76 @@
         <v>22</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>707</v>
+        <v>82</v>
       </c>
       <c r="H32">
-        <v>25685</v>
+        <v>3047</v>
       </c>
       <c r="I32">
-        <v>4401</v>
+        <v>616</v>
       </c>
       <c r="J32">
-        <v>9086</v>
+        <v>1258</v>
       </c>
       <c r="K32">
-        <v>367</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>1104</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>2281</v>
+        <v>339</v>
       </c>
       <c r="N32">
-        <v>2978</v>
+        <v>409</v>
       </c>
       <c r="O32">
-        <v>1794</v>
+        <v>323</v>
       </c>
       <c r="P32">
-        <v>5300</v>
+        <v>899</v>
       </c>
       <c r="Q32">
-        <v>2298</v>
+        <v>292</v>
       </c>
       <c r="R32">
-        <v>515</v>
+        <v>81</v>
       </c>
       <c r="S32">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="T32">
-        <v>1435</v>
+        <v>160</v>
       </c>
       <c r="U32">
-        <v>1893</v>
+        <v>225</v>
       </c>
       <c r="V32">
-        <v>11450</v>
+        <v>1576</v>
       </c>
       <c r="W32">
-        <v>0.484</v>
+        <v>0.49</v>
       </c>
       <c r="X32">
-        <v>0.332</v>
+        <v>0.227</v>
       </c>
       <c r="Y32">
-        <v>0.766</v>
+        <v>0.829</v>
       </c>
       <c r="Z32">
-        <v>36.3</v>
+        <v>37.2</v>
       </c>
       <c r="AA32">
-        <v>16.2</v>
+        <v>19.2</v>
       </c>
       <c r="AB32">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AC32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD32" t="s">
         <v>136</v>
@@ -3722,73 +3701,73 @@
         <v>22</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>213</v>
+      </c>
+      <c r="I33">
+        <v>27</v>
+      </c>
+      <c r="J33">
+        <v>71</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>45</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
+      </c>
+      <c r="P33">
+        <v>49</v>
+      </c>
+      <c r="Q33">
+        <v>12</v>
+      </c>
+      <c r="R33">
         <v>4</v>
       </c>
-      <c r="G33">
-        <v>72</v>
-      </c>
-      <c r="H33">
-        <v>309</v>
-      </c>
-      <c r="I33">
-        <v>44</v>
-      </c>
-      <c r="J33">
-        <v>112</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>47</v>
-      </c>
-      <c r="N33">
-        <v>71</v>
-      </c>
-      <c r="O33">
-        <v>30</v>
-      </c>
-      <c r="P33">
-        <v>74</v>
-      </c>
-      <c r="Q33">
-        <v>21</v>
-      </c>
-      <c r="R33">
+      <c r="S33">
         <v>5</v>
       </c>
-      <c r="S33">
-        <v>7</v>
-      </c>
       <c r="T33">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="U33">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="V33">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="W33">
-        <v>0.393</v>
+        <v>0.38</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>0.662</v>
+        <v>0.756</v>
       </c>
       <c r="Z33">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="AA33">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AC33">
         <v>0.3</v>
@@ -3814,76 +3793,76 @@
         <v>27</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H34">
-        <v>415</v>
+        <v>307</v>
       </c>
       <c r="I34">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J34">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="K34">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N34">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O34">
         <v>17</v>
       </c>
       <c r="P34">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="R34">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U34">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="V34">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="W34">
-        <v>0.412</v>
+        <v>0.431</v>
       </c>
       <c r="X34">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="Y34">
-        <v>0.7</v>
+        <v>0.526</v>
       </c>
       <c r="Z34">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="AA34">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AB34">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC34">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD34" t="s">
         <v>136</v>
@@ -3906,76 +3885,73 @@
         <v>23</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>567</v>
+        <v>66</v>
       </c>
       <c r="H35">
-        <v>12006</v>
+        <v>991</v>
       </c>
       <c r="I35">
-        <v>1685</v>
+        <v>114</v>
       </c>
       <c r="J35">
-        <v>3647</v>
+        <v>249</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>720</v>
+        <v>53</v>
       </c>
       <c r="N35">
-        <v>947</v>
+        <v>80</v>
       </c>
       <c r="O35">
-        <v>872</v>
+        <v>67</v>
       </c>
       <c r="P35">
-        <v>2794</v>
+        <v>257</v>
       </c>
       <c r="Q35">
-        <v>836</v>
+        <v>53</v>
       </c>
       <c r="R35">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="S35">
-        <v>549</v>
+        <v>64</v>
       </c>
       <c r="T35">
-        <v>942</v>
+        <v>83</v>
       </c>
       <c r="U35">
-        <v>1730</v>
+        <v>157</v>
       </c>
       <c r="V35">
-        <v>4090</v>
+        <v>281</v>
       </c>
       <c r="W35">
-        <v>0.462</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
+        <v>0.458</v>
       </c>
       <c r="Y35">
-        <v>0.76</v>
+        <v>0.663</v>
       </c>
       <c r="Z35">
-        <v>21.2</v>
+        <v>15</v>
       </c>
       <c r="AA35">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="AB35">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="AC35">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD35" t="s">
         <v>136</v>
@@ -3998,76 +3974,76 @@
         <v>23</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H36">
-        <v>1143</v>
+        <v>819</v>
       </c>
       <c r="I36">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J36">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36">
+        <v>46</v>
+      </c>
+      <c r="O36">
+        <v>30</v>
+      </c>
+      <c r="P36">
+        <v>85</v>
+      </c>
+      <c r="Q36">
+        <v>83</v>
+      </c>
+      <c r="R36">
+        <v>37</v>
+      </c>
+      <c r="S36">
         <v>9</v>
       </c>
-      <c r="M36">
-        <v>61</v>
-      </c>
-      <c r="N36">
-        <v>84</v>
-      </c>
-      <c r="O36">
-        <v>42</v>
-      </c>
-      <c r="P36">
-        <v>120</v>
-      </c>
-      <c r="Q36">
-        <v>108</v>
-      </c>
-      <c r="R36">
-        <v>48</v>
-      </c>
-      <c r="S36">
-        <v>15</v>
-      </c>
       <c r="T36">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="U36">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="V36">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="W36">
-        <v>0.436</v>
+        <v>0.417</v>
       </c>
       <c r="X36">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="Y36">
-        <v>0.726</v>
+        <v>0.761</v>
       </c>
       <c r="Z36">
-        <v>12</v>
+        <v>14.9</v>
       </c>
       <c r="AA36">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AB36">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AC36">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD36" t="s">
         <v>136</v>
@@ -4090,76 +4066,76 @@
         <v>22</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="H37">
-        <v>5018</v>
+        <v>2304</v>
       </c>
       <c r="I37">
-        <v>694</v>
+        <v>333</v>
       </c>
       <c r="J37">
-        <v>1806</v>
+        <v>889</v>
       </c>
       <c r="K37">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="N37">
-        <v>358</v>
+        <v>185</v>
       </c>
       <c r="O37">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="P37">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="Q37">
-        <v>428</v>
+        <v>168</v>
       </c>
       <c r="R37">
-        <v>349</v>
+        <v>154</v>
       </c>
       <c r="S37">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T37">
-        <v>323</v>
+        <v>155</v>
       </c>
       <c r="U37">
-        <v>587</v>
+        <v>242</v>
       </c>
       <c r="V37">
-        <v>1685</v>
+        <v>805</v>
       </c>
       <c r="W37">
-        <v>0.384</v>
+        <v>0.375</v>
       </c>
       <c r="X37">
-        <v>0.27</v>
+        <v>0.133</v>
       </c>
       <c r="Y37">
-        <v>0.735</v>
+        <v>0.73</v>
       </c>
       <c r="Z37">
-        <v>20</v>
+        <v>30.3</v>
       </c>
       <c r="AA37">
-        <v>6.7</v>
+        <v>10.6</v>
       </c>
       <c r="AB37">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="AC37">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AD37" t="s">
         <v>136</v>
@@ -4366,76 +4342,76 @@
         <v>26</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>1729</v>
+        <v>782</v>
       </c>
       <c r="I40">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="J40">
-        <v>738</v>
+        <v>325</v>
       </c>
       <c r="K40">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="L40">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="M40">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="N40">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="O40">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="P40">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="Q40">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="R40">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="S40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="U40">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="V40">
-        <v>833</v>
+        <v>355</v>
       </c>
       <c r="W40">
-        <v>0.404</v>
+        <v>0.4</v>
       </c>
       <c r="X40">
-        <v>0.344</v>
+        <v>0.357</v>
       </c>
       <c r="Y40">
-        <v>0.838</v>
+        <v>0.833</v>
       </c>
       <c r="Z40">
-        <v>14.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA40">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD40" t="s">
         <v>136</v>
@@ -4458,76 +4434,76 @@
         <v>23</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>508</v>
+        <v>50</v>
       </c>
       <c r="H41">
-        <v>11882</v>
+        <v>478</v>
       </c>
       <c r="I41">
-        <v>1889</v>
+        <v>76</v>
       </c>
       <c r="J41">
-        <v>4310</v>
+        <v>183</v>
       </c>
       <c r="K41">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>863</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>1044</v>
+        <v>46</v>
       </c>
       <c r="N41">
-        <v>1329</v>
+        <v>61</v>
       </c>
       <c r="O41">
-        <v>339</v>
+        <v>21</v>
       </c>
       <c r="P41">
-        <v>1261</v>
+        <v>54</v>
       </c>
       <c r="Q41">
-        <v>2467</v>
+        <v>92</v>
       </c>
       <c r="R41">
-        <v>830</v>
+        <v>30</v>
       </c>
       <c r="S41">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="T41">
-        <v>991</v>
+        <v>50</v>
       </c>
       <c r="U41">
-        <v>981</v>
+        <v>52</v>
       </c>
       <c r="V41">
-        <v>5118</v>
+        <v>203</v>
       </c>
       <c r="W41">
-        <v>0.438</v>
+        <v>0.415</v>
       </c>
       <c r="X41">
-        <v>0.343</v>
+        <v>0.192</v>
       </c>
       <c r="Y41">
-        <v>0.786</v>
+        <v>0.754</v>
       </c>
       <c r="Z41">
-        <v>23.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA41">
-        <v>10.1</v>
+        <v>4.1</v>
       </c>
       <c r="AB41">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC41">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD41" t="s">
         <v>136</v>
@@ -4550,76 +4526,73 @@
         <v>25</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1196</v>
+        <v>71</v>
       </c>
       <c r="H42">
-        <v>36791</v>
+        <v>2716</v>
       </c>
       <c r="I42">
-        <v>4169</v>
+        <v>428</v>
       </c>
       <c r="J42">
-        <v>8045</v>
+        <v>869</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>3391</v>
+        <v>321</v>
       </c>
       <c r="N42">
-        <v>4960</v>
+        <v>500</v>
       </c>
       <c r="O42">
-        <v>3808</v>
+        <v>316</v>
       </c>
       <c r="P42">
-        <v>12359</v>
+        <v>870</v>
       </c>
       <c r="Q42">
-        <v>1240</v>
+        <v>156</v>
       </c>
       <c r="R42">
-        <v>494</v>
+        <v>43</v>
       </c>
       <c r="S42">
-        <v>3289</v>
+        <v>210</v>
       </c>
       <c r="T42">
-        <v>2173</v>
+        <v>252</v>
       </c>
       <c r="U42">
-        <v>3383</v>
+        <v>273</v>
       </c>
       <c r="V42">
-        <v>11729</v>
+        <v>1177</v>
       </c>
       <c r="W42">
-        <v>0.518</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
+        <v>0.493</v>
       </c>
       <c r="Y42">
-        <v>0.6840000000000001</v>
+        <v>0.642</v>
       </c>
       <c r="Z42">
-        <v>30.8</v>
+        <v>38.3</v>
       </c>
       <c r="AA42">
-        <v>9.800000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="AB42">
-        <v>10.3</v>
+        <v>12.3</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AD42" t="s">
         <v>136</v>
@@ -4642,70 +4615,70 @@
         <v>22</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="H43">
-        <v>856</v>
+        <v>252</v>
       </c>
       <c r="I43">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="J43">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
+      <c r="M43">
         <v>17</v>
       </c>
-      <c r="L43">
-        <v>50</v>
-      </c>
-      <c r="M43">
-        <v>44</v>
-      </c>
       <c r="N43">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="O43">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P43">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="Q43">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="R43">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="U43">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="V43">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="W43">
-        <v>0.407</v>
+        <v>0.398</v>
       </c>
       <c r="X43">
-        <v>0.34</v>
+        <v>0.111</v>
       </c>
       <c r="Y43">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="Z43">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA43">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB43">
         <v>1</v>
@@ -4734,76 +4707,76 @@
         <v>22</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="H44">
-        <v>17619</v>
+        <v>2510</v>
       </c>
       <c r="I44">
-        <v>2873</v>
+        <v>468</v>
       </c>
       <c r="J44">
-        <v>5969</v>
+        <v>891</v>
       </c>
       <c r="K44">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="M44">
-        <v>1198</v>
+        <v>204</v>
       </c>
       <c r="N44">
-        <v>1904</v>
+        <v>312</v>
       </c>
       <c r="O44">
-        <v>1449</v>
+        <v>243</v>
       </c>
       <c r="P44">
-        <v>4016</v>
+        <v>639</v>
       </c>
       <c r="Q44">
-        <v>1704</v>
+        <v>188</v>
       </c>
       <c r="R44">
-        <v>569</v>
+        <v>90</v>
       </c>
       <c r="S44">
-        <v>321</v>
+        <v>65</v>
       </c>
       <c r="T44">
-        <v>1310</v>
+        <v>179</v>
       </c>
       <c r="U44">
-        <v>1761</v>
+        <v>276</v>
       </c>
       <c r="V44">
-        <v>7026</v>
+        <v>1141</v>
       </c>
       <c r="W44">
-        <v>0.481</v>
+        <v>0.525</v>
       </c>
       <c r="X44">
-        <v>0.291</v>
+        <v>0.111</v>
       </c>
       <c r="Y44">
-        <v>0.629</v>
+        <v>0.654</v>
       </c>
       <c r="Z44">
-        <v>29.4</v>
+        <v>31.4</v>
       </c>
       <c r="AA44">
-        <v>11.7</v>
+        <v>14.3</v>
       </c>
       <c r="AB44">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AC44">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AD44" t="s">
         <v>136</v>
@@ -4915,76 +4888,76 @@
         <v>22</v>
       </c>
       <c r="F46">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>552</v>
+        <v>72</v>
       </c>
       <c r="H46">
-        <v>11462</v>
+        <v>894</v>
       </c>
       <c r="I46">
-        <v>1739</v>
+        <v>115</v>
       </c>
       <c r="J46">
-        <v>4090</v>
+        <v>272</v>
       </c>
       <c r="K46">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>390</v>
+        <v>10</v>
       </c>
       <c r="M46">
-        <v>1329</v>
+        <v>102</v>
       </c>
       <c r="N46">
-        <v>1689</v>
+        <v>127</v>
       </c>
       <c r="O46">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="P46">
-        <v>1112</v>
+        <v>97</v>
       </c>
       <c r="Q46">
-        <v>2556</v>
+        <v>140</v>
       </c>
       <c r="R46">
-        <v>605</v>
+        <v>40</v>
       </c>
       <c r="S46">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="T46">
-        <v>1320</v>
+        <v>92</v>
       </c>
       <c r="U46">
-        <v>1041</v>
+        <v>101</v>
       </c>
       <c r="V46">
-        <v>4921</v>
+        <v>332</v>
       </c>
       <c r="W46">
-        <v>0.425</v>
+        <v>0.423</v>
       </c>
       <c r="X46">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.787</v>
+        <v>0.803</v>
       </c>
       <c r="Z46">
-        <v>20.8</v>
+        <v>12.4</v>
       </c>
       <c r="AA46">
-        <v>8.9</v>
+        <v>4.6</v>
       </c>
       <c r="AB46">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AC46">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD46" t="s">
         <v>136</v>
@@ -5007,76 +4980,76 @@
         <v>22</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>549</v>
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>9501</v>
+        <v>437</v>
       </c>
       <c r="I47">
-        <v>1353</v>
+        <v>49</v>
       </c>
       <c r="J47">
-        <v>2945</v>
+        <v>129</v>
       </c>
       <c r="K47">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>384</v>
+        <v>7</v>
       </c>
       <c r="M47">
-        <v>605</v>
+        <v>27</v>
       </c>
       <c r="N47">
-        <v>773</v>
+        <v>41</v>
       </c>
       <c r="O47">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="P47">
-        <v>742</v>
+        <v>39</v>
       </c>
       <c r="Q47">
-        <v>1699</v>
+        <v>78</v>
       </c>
       <c r="R47">
-        <v>574</v>
+        <v>34</v>
       </c>
       <c r="S47">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="T47">
-        <v>780</v>
+        <v>50</v>
       </c>
       <c r="U47">
-        <v>707</v>
+        <v>36</v>
       </c>
       <c r="V47">
-        <v>3449</v>
+        <v>126</v>
       </c>
       <c r="W47">
-        <v>0.459</v>
+        <v>0.38</v>
       </c>
       <c r="X47">
-        <v>0.359</v>
+        <v>0.143</v>
       </c>
       <c r="Y47">
-        <v>0.783</v>
+        <v>0.659</v>
       </c>
       <c r="Z47">
-        <v>17.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA47">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="AB47">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD47" t="s">
         <v>136</v>
@@ -5099,76 +5072,76 @@
         <v>22</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>467</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>13426</v>
+        <v>65</v>
       </c>
       <c r="I48">
-        <v>1957</v>
+        <v>12</v>
       </c>
       <c r="J48">
-        <v>4416</v>
+        <v>28</v>
       </c>
       <c r="K48">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>878</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>897</v>
+        <v>7</v>
       </c>
       <c r="N48">
-        <v>1215</v>
+        <v>11</v>
       </c>
       <c r="O48">
-        <v>411</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>1469</v>
+        <v>8</v>
       </c>
       <c r="Q48">
-        <v>1246</v>
+        <v>4</v>
       </c>
       <c r="R48">
-        <v>592</v>
+        <v>3</v>
       </c>
       <c r="S48">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>711</v>
+        <v>8</v>
       </c>
       <c r="U48">
-        <v>1106</v>
+        <v>3</v>
       </c>
       <c r="V48">
-        <v>5153</v>
+        <v>31</v>
       </c>
       <c r="W48">
-        <v>0.443</v>
+        <v>0.429</v>
       </c>
       <c r="X48">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>0.738</v>
+        <v>0.636</v>
       </c>
       <c r="Z48">
-        <v>28.7</v>
+        <v>6.5</v>
       </c>
       <c r="AA48">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="AB48">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD48" t="s">
         <v>136</v>
@@ -5191,76 +5164,76 @@
         <v>24</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="H49">
-        <v>883</v>
+        <v>441</v>
       </c>
       <c r="I49">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="J49">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L49">
+        <v>16</v>
+      </c>
+      <c r="M49">
+        <v>32</v>
+      </c>
+      <c r="N49">
+        <v>43</v>
+      </c>
+      <c r="O49">
         <v>39</v>
       </c>
-      <c r="M49">
-        <v>70</v>
-      </c>
-      <c r="N49">
-        <v>97</v>
-      </c>
-      <c r="O49">
-        <v>79</v>
-      </c>
       <c r="P49">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="Q49">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="R49">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="U49">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="V49">
-        <v>332</v>
+        <v>171</v>
       </c>
       <c r="W49">
-        <v>0.443</v>
+        <v>0.456</v>
       </c>
       <c r="X49">
-        <v>0.154</v>
+        <v>0.188</v>
       </c>
       <c r="Y49">
-        <v>0.722</v>
+        <v>0.744</v>
       </c>
       <c r="Z49">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA49">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB49">
         <v>1.3</v>
       </c>
       <c r="AC49">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD49" t="s">
         <v>136</v>
@@ -5283,76 +5256,76 @@
         <v>21</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="H50">
-        <v>5869</v>
+        <v>1118</v>
       </c>
       <c r="I50">
-        <v>1059</v>
+        <v>236</v>
       </c>
       <c r="J50">
-        <v>2124</v>
+        <v>446</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>437</v>
+        <v>101</v>
       </c>
       <c r="N50">
-        <v>850</v>
+        <v>196</v>
       </c>
       <c r="O50">
-        <v>506</v>
+        <v>113</v>
       </c>
       <c r="P50">
-        <v>1549</v>
+        <v>336</v>
       </c>
       <c r="Q50">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="R50">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="S50">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="T50">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="U50">
-        <v>1060</v>
+        <v>221</v>
       </c>
       <c r="V50">
-        <v>2555</v>
+        <v>573</v>
       </c>
       <c r="W50">
-        <v>0.499</v>
+        <v>0.529</v>
       </c>
       <c r="X50">
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>0.514</v>
+        <v>0.515</v>
       </c>
       <c r="Z50">
-        <v>19.6</v>
+        <v>20.3</v>
       </c>
       <c r="AA50">
-        <v>8.5</v>
+        <v>10.4</v>
       </c>
       <c r="AB50">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="AC50">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD50" t="s">
         <v>136</v>
@@ -5375,76 +5348,76 @@
         <v>22</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="H51">
-        <v>5833</v>
+        <v>1707</v>
       </c>
       <c r="I51">
-        <v>1020</v>
+        <v>291</v>
       </c>
       <c r="J51">
-        <v>2399</v>
+        <v>702</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M51">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="N51">
-        <v>405</v>
+        <v>121</v>
       </c>
       <c r="O51">
-        <v>394</v>
+        <v>129</v>
       </c>
       <c r="P51">
-        <v>1234</v>
+        <v>391</v>
       </c>
       <c r="Q51">
-        <v>400</v>
+        <v>129</v>
       </c>
       <c r="R51">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="S51">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="T51">
-        <v>353</v>
+        <v>97</v>
       </c>
       <c r="U51">
-        <v>979</v>
+        <v>259</v>
       </c>
       <c r="V51">
-        <v>2356</v>
+        <v>671</v>
       </c>
       <c r="W51">
-        <v>0.425</v>
+        <v>0.415</v>
       </c>
       <c r="X51">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>0.773</v>
+        <v>0.736</v>
       </c>
       <c r="Z51">
-        <v>19.7</v>
+        <v>22.5</v>
       </c>
       <c r="AA51">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB51">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AC51">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD51" t="s">
         <v>136</v>
@@ -5467,76 +5440,76 @@
         <v>22</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="H52">
-        <v>3131</v>
+        <v>708</v>
       </c>
       <c r="I52">
-        <v>485</v>
+        <v>100</v>
       </c>
       <c r="J52">
-        <v>1122</v>
+        <v>246</v>
       </c>
       <c r="K52">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="N52">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="O52">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="P52">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="Q52">
-        <v>394</v>
+        <v>99</v>
       </c>
       <c r="R52">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="S52">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="U52">
-        <v>372</v>
+        <v>98</v>
       </c>
       <c r="V52">
-        <v>1218</v>
+        <v>247</v>
       </c>
       <c r="W52">
-        <v>0.432</v>
+        <v>0.407</v>
       </c>
       <c r="X52">
-        <v>0.298</v>
+        <v>0.095</v>
       </c>
       <c r="Y52">
-        <v>0.8129999999999999</v>
+        <v>0.804</v>
       </c>
       <c r="Z52">
-        <v>17.1</v>
+        <v>14.8</v>
       </c>
       <c r="AA52">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="AB52">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AC52">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD52" t="s">
         <v>136</v>
@@ -5559,76 +5532,76 @@
         <v>22</v>
       </c>
       <c r="F53">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>942</v>
+        <v>61</v>
       </c>
       <c r="H53">
-        <v>28855</v>
+        <v>1806</v>
       </c>
       <c r="I53">
-        <v>4609</v>
+        <v>297</v>
       </c>
       <c r="J53">
-        <v>10485</v>
+        <v>654</v>
       </c>
       <c r="K53">
-        <v>1148</v>
+        <v>40</v>
       </c>
       <c r="L53">
-        <v>3208</v>
+        <v>125</v>
       </c>
       <c r="M53">
-        <v>3064</v>
+        <v>95</v>
       </c>
       <c r="N53">
-        <v>3625</v>
+        <v>127</v>
       </c>
       <c r="O53">
-        <v>1112</v>
+        <v>81</v>
       </c>
       <c r="P53">
-        <v>3060</v>
+        <v>188</v>
       </c>
       <c r="Q53">
-        <v>2922</v>
+        <v>278</v>
       </c>
       <c r="R53">
-        <v>726</v>
+        <v>59</v>
       </c>
       <c r="S53">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="T53">
-        <v>1714</v>
+        <v>152</v>
       </c>
       <c r="U53">
-        <v>2278</v>
+        <v>162</v>
       </c>
       <c r="V53">
-        <v>13430</v>
+        <v>729</v>
       </c>
       <c r="W53">
-        <v>0.44</v>
+        <v>0.454</v>
       </c>
       <c r="X53">
-        <v>0.358</v>
+        <v>0.32</v>
       </c>
       <c r="Y53">
-        <v>0.845</v>
+        <v>0.748</v>
       </c>
       <c r="Z53">
-        <v>30.6</v>
+        <v>29.6</v>
       </c>
       <c r="AA53">
-        <v>14.3</v>
+        <v>12</v>
       </c>
       <c r="AB53">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AC53">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="AD53" t="s">
         <v>136</v>
@@ -5651,76 +5624,76 @@
         <v>23</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="H54">
-        <v>5415</v>
+        <v>2229</v>
       </c>
       <c r="I54">
-        <v>765</v>
+        <v>303</v>
       </c>
       <c r="J54">
-        <v>1503</v>
+        <v>590</v>
       </c>
       <c r="K54">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>188</v>
+      </c>
+      <c r="N54">
+        <v>233</v>
+      </c>
+      <c r="O54">
+        <v>186</v>
+      </c>
+      <c r="P54">
+        <v>449</v>
+      </c>
+      <c r="Q54">
+        <v>120</v>
+      </c>
+      <c r="R54">
+        <v>51</v>
+      </c>
+      <c r="S54">
         <v>44</v>
       </c>
-      <c r="M54">
-        <v>466</v>
-      </c>
-      <c r="N54">
-        <v>619</v>
-      </c>
-      <c r="O54">
-        <v>444</v>
-      </c>
-      <c r="P54">
-        <v>1077</v>
-      </c>
-      <c r="Q54">
-        <v>338</v>
-      </c>
-      <c r="R54">
-        <v>147</v>
-      </c>
-      <c r="S54">
-        <v>106</v>
-      </c>
       <c r="T54">
-        <v>346</v>
+        <v>112</v>
       </c>
       <c r="U54">
-        <v>580</v>
+        <v>225</v>
       </c>
       <c r="V54">
-        <v>2005</v>
+        <v>794</v>
       </c>
       <c r="W54">
-        <v>0.509</v>
+        <v>0.514</v>
       </c>
       <c r="X54">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>0.753</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Z54">
-        <v>20.1</v>
+        <v>29.3</v>
       </c>
       <c r="AA54">
-        <v>7.4</v>
+        <v>10.4</v>
       </c>
       <c r="AB54">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="AC54">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD54" t="s">
         <v>136</v>
@@ -5743,76 +5716,73 @@
         <v>23</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>8548</v>
+        <v>12</v>
       </c>
       <c r="I55">
-        <v>1067</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>2483</v>
+        <v>4</v>
       </c>
       <c r="K55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>943</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>1199</v>
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>783</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>2213</v>
+        <v>5</v>
       </c>
       <c r="Q55">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <v>740</v>
+        <v>1</v>
       </c>
       <c r="V55">
-        <v>3088</v>
+        <v>3</v>
       </c>
       <c r="W55">
-        <v>0.43</v>
-      </c>
-      <c r="X55">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.786</v>
+        <v>0.75</v>
       </c>
       <c r="Z55">
-        <v>18.7</v>
+        <v>12</v>
       </c>
       <c r="AA55">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="AB55">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AC55">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="s">
         <v>136</v>
@@ -5835,76 +5805,76 @@
         <v>23</v>
       </c>
       <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>12</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
         <v>2</v>
       </c>
-      <c r="G56">
-        <v>13</v>
-      </c>
-      <c r="H56">
-        <v>155</v>
-      </c>
-      <c r="I56">
-        <v>24</v>
-      </c>
-      <c r="J56">
-        <v>73</v>
-      </c>
-      <c r="K56">
+      <c r="M56">
         <v>2</v>
       </c>
-      <c r="L56">
-        <v>15</v>
-      </c>
-      <c r="M56">
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
         <v>10</v>
       </c>
-      <c r="N56">
-        <v>14</v>
-      </c>
-      <c r="O56">
-        <v>9</v>
-      </c>
-      <c r="P56">
-        <v>15</v>
-      </c>
-      <c r="Q56">
-        <v>14</v>
-      </c>
-      <c r="R56">
-        <v>9</v>
-      </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56">
-        <v>17</v>
-      </c>
-      <c r="U56">
-        <v>15</v>
-      </c>
-      <c r="V56">
-        <v>60</v>
-      </c>
       <c r="W56">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="X56">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>0.714</v>
+        <v>0.5</v>
       </c>
       <c r="Z56">
-        <v>11.9</v>
+        <v>4.3</v>
       </c>
       <c r="AA56">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB56">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC56">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD56" t="s">
         <v>136</v>
@@ -5927,76 +5897,76 @@
         <v>24</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="H57">
-        <v>1946</v>
+        <v>601</v>
       </c>
       <c r="I57">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="J57">
-        <v>687</v>
+        <v>240</v>
       </c>
       <c r="K57">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="L57">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="M57">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N57">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="O57">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P57">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="Q57">
-        <v>284</v>
+        <v>91</v>
       </c>
       <c r="R57">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="S57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T57">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="U57">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="V57">
-        <v>761</v>
+        <v>246</v>
       </c>
       <c r="W57">
-        <v>0.396</v>
+        <v>0.388</v>
       </c>
       <c r="X57">
-        <v>0.361</v>
+        <v>0.292</v>
       </c>
       <c r="Y57">
-        <v>0.743</v>
+        <v>0.756</v>
       </c>
       <c r="Z57">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="AA57">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB57">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AC57">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AD57" t="s">
         <v>136</v>
@@ -6019,76 +5989,76 @@
         <v>22</v>
       </c>
       <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>31</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
         <v>3</v>
       </c>
-      <c r="G58">
-        <v>63</v>
-      </c>
-      <c r="H58">
-        <v>534</v>
-      </c>
-      <c r="I58">
-        <v>70</v>
-      </c>
-      <c r="J58">
-        <v>176</v>
-      </c>
-      <c r="K58">
-        <v>23</v>
-      </c>
-      <c r="L58">
-        <v>73</v>
-      </c>
-      <c r="M58">
-        <v>18</v>
-      </c>
-      <c r="N58">
-        <v>28</v>
-      </c>
-      <c r="O58">
-        <v>13</v>
-      </c>
-      <c r="P58">
-        <v>60</v>
-      </c>
-      <c r="Q58">
-        <v>28</v>
-      </c>
-      <c r="R58">
-        <v>24</v>
-      </c>
-      <c r="S58">
-        <v>8</v>
-      </c>
-      <c r="T58">
-        <v>25</v>
-      </c>
-      <c r="U58">
-        <v>49</v>
-      </c>
       <c r="V58">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="W58">
-        <v>0.398</v>
+        <v>0.417</v>
       </c>
       <c r="X58">
-        <v>0.315</v>
+        <v>0.5</v>
       </c>
       <c r="Y58">
-        <v>0.643</v>
+        <v>0.5</v>
       </c>
       <c r="Z58">
-        <v>8.5</v>
+        <v>31</v>
       </c>
       <c r="AA58">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AD58" t="s">
         <v>136</v>
